--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcce741b9d517710/Documentos/bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CB85681E-E48D-46CE-87CF-121A3FF8249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931E7C77-CB11-45D0-AF5C-C5A277EB4CFC}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{CB85681E-E48D-46CE-87CF-121A3FF8249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E960CE67-BA3A-4D5C-8C4B-0D4A70A1F273}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pessoa</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>JOW</t>
+    <t>Nome pessoa aqui</t>
   </si>
   <si>
-    <t>OI</t>
+    <t>Numero pessoa aqui</t>
+  </si>
+  <si>
+    <t>Mensagem pessoa aqui</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,45 +433,24 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>5514554535345</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5514554535345</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5511976444988</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5514554535345</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
